--- a/eccrm-spec/spec-web/src/main/resources/youthInfo.xlsx
+++ b/eccrm-spec/spec-web/src/main/resources/youthInfo.xlsx
@@ -137,8 +137,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -171,83 +171,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,46 +236,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,6 +267,52 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -335,13 +335,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,169 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,13 +544,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,8 +562,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,56 +622,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,137 +661,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,9 +806,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1138,8 +1135,8 @@
   <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.25" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
@@ -1177,10 +1174,10 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" customHeight="1" spans="1:7">
@@ -1196,8 +1193,8 @@
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" customHeight="1" spans="1:7">
@@ -1213,8 +1210,8 @@
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" customHeight="1" spans="1:7">
@@ -1230,25 +1227,25 @@
       <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
@@ -1260,8 +1257,8 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" customHeight="1" spans="1:7">
@@ -1323,54 +1320,54 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:7">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G16" s="2"/>

--- a/eccrm-spec/spec-web/src/main/resources/youthInfo.xlsx
+++ b/eccrm-spec/spec-web/src/main/resources/youthInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>结对帮扶青少年信息登记表</t>
   </si>
@@ -54,7 +54,7 @@
     <t>$mobile</t>
   </si>
   <si>
-    <t>座机号码</t>
+    <t>身份证号</t>
   </si>
   <si>
     <t>$tel</t>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>$birtyday</t>
+  </si>
+  <si>
+    <t>兴趣爱好</t>
+  </si>
+  <si>
+    <t>$interest</t>
   </si>
   <si>
     <t>地址</t>
@@ -137,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -170,16 +176,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,6 +200,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -201,28 +228,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,25 +266,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,47 +290,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,25 +341,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,37 +455,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,120 +521,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -545,16 +551,53 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,26 +641,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,6 +661,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,137 +704,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,6 +852,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1133,10 +1185,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.25" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
@@ -1252,11 +1304,11 @@
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="2"/>
@@ -1270,13 +1322,17 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1319,67 +1375,77 @@
       <c r="F13" s="4"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" ht="24" customHeight="1" spans="1:7">
-      <c r="A14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+    <row r="14" customHeight="1" spans="1:7">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="7" t="s">
+    <row r="15" ht="24" customHeight="1" spans="1:7">
+      <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
+      <c r="A16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="B16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="8" t="s">
+      <c r="E16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="F16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
+      <c r="A17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="B17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="C17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="D17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="E17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="E2:F7"/>
-    <mergeCell ref="B8:F13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="E2:F8"/>
+    <mergeCell ref="B9:F14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
